--- a/Excel Data/Cao_AccountAmendment.xlsx
+++ b/Excel Data/Cao_AccountAmendment.xlsx
@@ -346,10 +346,14 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
